--- a/curriculum/AC 1/data/remove/focused_remove.xlsx
+++ b/curriculum/AC 1/data/remove/focused_remove.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Desktop/GitHub/STARS/curriculum/AC 1/data/remove/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C07791-4704-554A-9DD7-02FCD929C5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC177F97-5788-894C-9CAE-D98858ADA2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4378,8 +4378,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="G230" sqref="G230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
